--- a/PABMI/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Transferencia de un Bien Mueble.xlsx
+++ b/PABMI/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Transferencia de un Bien Mueble.xlsx
@@ -5,24 +5,24 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PABMI\13 MATRIZ DE PRUEBAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\PABMI\13 MATRIZ DE PRUEBAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
   </bookViews>
   <sheets>
-    <sheet name="Transferencia de un bien muble " sheetId="8" r:id="rId1"/>
+    <sheet name="Baja de un bien " sheetId="8" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Transferencia de un bien muble '!$A$1:$N$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Baja de un bien '!$A$1:$N$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
-    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="136">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -287,9 +287,6 @@
     <t xml:space="preserve">Se ingresa al sistema PABMI, </t>
   </si>
   <si>
-    <t>judith.jaramillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enrique Leal </t>
   </si>
   <si>
@@ -305,15 +302,9 @@
     <t>Despliegue de menú Almacén</t>
   </si>
   <si>
-    <t xml:space="preserve">luis.andres </t>
-  </si>
-  <si>
     <t xml:space="preserve">Analista Administrativo </t>
   </si>
   <si>
-    <t xml:space="preserve">melisa.rosas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Error </t>
   </si>
   <si>
@@ -326,84 +317,21 @@
     <t xml:space="preserve">Matriz de Pruebas Plataforma de Administración de Bienes Muebles </t>
   </si>
   <si>
-    <t>altagracia.mendoza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flujo de  Transferencia de un Bien Mueble </t>
   </si>
   <si>
     <t xml:space="preserve">Enlace Dependencia </t>
   </si>
   <si>
-    <t xml:space="preserve">Transferencias </t>
-  </si>
-  <si>
     <t xml:space="preserve">Inglesa a la pantalla Listado de Transferencias </t>
   </si>
   <si>
     <t xml:space="preserve">Inglesa a la pantalla Listado de transferencias </t>
   </si>
   <si>
-    <t xml:space="preserve">Listado de Transferencia </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuevo </t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresar a la pantalla siguiente para el proceso del llenado de la solicitid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalle de Transferencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llenado detalles de transferencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llenado detalles de transferencia son  5 campos importante seleccionar el tipo de transferencia y motivo del resguardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clave del registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descarga formato FRDP-002 Resguardo de Mobiliario y Equipo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descarga formato FRDP-004 Transferencia Interna  Mobiliario y Equipo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear la clave del Registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creacion del Formato FRDP-002 y descarga del mismo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creacion del Formato FRDP-004 y descarga del mismo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalle  </t>
-  </si>
-  <si>
-    <t>Carga FRDP-002 Resguado de Mobiliarioa y Esquipo</t>
-  </si>
-  <si>
-    <t>Carga FRDP-004 Resguado de Mobiliarioa y Esquipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlase Detalle transferencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón Cargar Oficios y Formatos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir el campo 3 Detalles de la Transferencia con  la carga de Formatos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga de Documentos  listo para autorizar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga de Documentos  listo para autorizar por parte del coordinador de la dependencia </t>
-  </si>
-  <si>
     <t xml:space="preserve">Detalles </t>
   </si>
   <si>
@@ -413,112 +341,190 @@
     <t xml:space="preserve">Devolver con comentarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Cancelar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlase Detalle transferencia se repite dos veces el campo 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmar la solicitud lista para confirmar y revisar  por parte de Coordinador de Bienes Muebles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancela la solicitud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">listado de Transferencia  </t>
-  </si>
-  <si>
-    <t>Coordinador de la Dependencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordinador de Bienes Mueble </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón Turnar a Jefatura de Inventarios </t>
-  </si>
-  <si>
-    <t>Enlase Detalle transferencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirma, revisa y valida el registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirma, revisa y valida el registro, listo para enviarlo a jefatura de inventarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">listado de transferencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jefatura de Inventarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">serafin.supulvera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón Turnar al  Analista Administrativo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envía la solicitud para la finalización Interna &amp;Externa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envía la solicitud para la finalización Interna &amp;Externa donde finaliza y Notifica al Analista Administrativo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalizar y Notificar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finaliza y Notifica al Analista Adiminitrativo para Continuar con el proceso interno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón Confirmar Registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirma el regsitro listo para sellar y retornar a Jefatura de Inventarios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga de FRDP-002 Resguardo de Mobiliario y Equipo Firmado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga de FRDP-004 Transferencia Interna de Mobiliario y Equipo Firmado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargar de FRDP-002 Resguardo de Mobiliario y Equipo Firmado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargar de FRDP-004 Transferencia Interna de Mobiliario y Equipo Firmado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envia documentos firmados a Jefarura  de inventarios para continuar con la elaboración de Respuesta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón Archivar y Notificar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archica la tranferencia y Notifica al Coordinador de Bienes Muebles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detalles de Transferencia </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cargar Oficio de Contestación </t>
   </si>
   <si>
-    <t xml:space="preserve">Carga oficio de contestación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botón Autorizar y Firmar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autorizar Oficio de Respuesta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autorizar Oficio de Respuesta y se envía a Jefatura de Inventarios para finalizar el poceso de transferencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finaliza y Notifica Finalizaa Proceso de Transferencia y notifica a la dependencia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carga de Documento Firmado Revisar bien como es el flujo de descarga, firma y carga de documentos firmados </t>
+    <t>luis.sierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajas </t>
+  </si>
+  <si>
+    <t>Bajas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listado de bajas </t>
+  </si>
+  <si>
+    <t>Solicitud de Bajas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos del bien No. Activo </t>
+  </si>
+  <si>
+    <t>Datos del bien Descripción de la  baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivo de la baja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar el titulo ya que dice Motivo de las baja omitir la s de las </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccione la baja que corresponda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraer los datss del  numero de activo desde resguardos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se puede ingresar l apartado de la solicitud de la baja, pero al guardar el registro se guarda mas de tres veces el mismo registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear la soliciud de la baja </t>
+  </si>
+  <si>
+    <t>Permite redactar el motivo de la baja</t>
+  </si>
+  <si>
+    <t>Motivo de la baja Robo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivo de la baja Siniestro </t>
+  </si>
+  <si>
+    <t>Motivo de la baja Extravio</t>
+  </si>
+  <si>
+    <t>Motivo de la baja Daño</t>
+  </si>
+  <si>
+    <t>Detalles Adicionales Testigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clave de Registro </t>
+  </si>
+  <si>
+    <t>Descarga del Formato Acta Adminis. FRDP-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarda registro mas de una ves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroja clave de Registro </t>
+  </si>
+  <si>
+    <t>Descarga de Formato FRDP-007</t>
+  </si>
+  <si>
+    <t>CARGA  del Formato Acta Adminis. FRDP-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Grardar Documentación Soporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Formato FRDP-007- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">luis.angres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinador de Dependencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmacion de la Solicitud y Enviada a Coordinación de bienes Muebles  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinador de Bienes Muebles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">judith.jaramillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorizar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorizar la solicitud de baja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón turnar a Jefatura de inventarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envia la solicitud de baja autorizada a jefatura de jefatura de inventarios para contunuar con el proceso siguiente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefatura de inventarios </t>
+  </si>
+  <si>
+    <t>serafin.sepulveda</t>
+  </si>
+  <si>
+    <t>Detalles de Baja Documentos Descarga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroja un erro al descargar documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Oficio de Contestación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar Documentción de Soporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurdar dormato de contestación, listo para ser turnado a CBM para su autorización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Turnar a CBM para su aautorización </t>
+  </si>
+  <si>
+    <t>Envia la solicitud de baja a coordinación de bienes muebles  para contunuar con el proceso siguiente. FRDP-019 Firmado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga de FRDP-019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de FRDP-019 Firmado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de FRDP-019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Confirmar Documentaión de Soporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirma la soliicitud lista para turnar al analista administrativo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Turnar al analista Administrativo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melisa Rosas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirma Documentación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón  Confirmación de Procesado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boton Turnar a Jefatura de Inventarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirma la solicitud para sello y firma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envia la solicitud a jefatura de inventarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Archiva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archiva y Finaliza el Proceso de la Baja </t>
+  </si>
+  <si>
+    <t>Permite redactar el  testigos  de la baja</t>
   </si>
 </sst>
 </file>
@@ -952,19 +958,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1032,7 +1026,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t> Alta Por Requisición </a:t>
+              <a:t> Baja</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de un bien Mueble</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1064,7 +1066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1781,9 +1783,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1804,9 +1804,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1832,7 +1830,6 @@
         <c:idx val="44"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1840,9 +1837,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1891,9 +1886,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1914,9 +1907,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1938,8 +1929,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1967,7 +1957,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-MX"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1982,6 +1972,81 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2085,58 +2150,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2162,10 +2176,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -2231,7 +2245,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2268,7 +2282,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2359,7 +2373,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2671,7 +2685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2741,7 +2755,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2784,7 +2798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2814,7 +2828,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2904,7 +2918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3665,7 +3679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3735,7 +3749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3777,7 +3791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3807,7 +3821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5679,13 +5693,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5825,7 +5839,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45273.685090046296" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N49" sheet="Transferencia de un bien muble "/>
+    <worksheetSource ref="A6:N51" sheet="Baja de un bien "/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -5891,13 +5905,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45273.685090509258" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="44">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="inifap.gob.mx" refreshedDate="45278.548253703702" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="46">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:L50" sheet="Transferencia de un bien muble "/>
+    <worksheetSource ref="A6:L52" sheet="Baja de un bien "/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="38"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5918,8 +5932,8 @@
       <sharedItems containsBlank="1" count="5">
         <s v="Realizado"/>
         <s v="Error "/>
+        <m/>
         <s v="Pendiente"/>
-        <m/>
         <s v="Error" u="1"/>
       </sharedItems>
     </cacheField>
@@ -6641,7 +6655,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="44">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="46">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
@@ -6659,7 +6673,7 @@
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <s v="altagracia.mendoza"/>
+    <s v="luis.sierra"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
     <s v="Ingresar "/>
@@ -6729,7 +6743,7 @@
   <r>
     <n v="7"/>
     <s v="Almacén "/>
-    <s v="Transferencias "/>
+    <s v="Bajas "/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
     <s v="Ingresar "/>
@@ -6742,167 +6756,167 @@
   </r>
   <r>
     <n v="8"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Listado de bajas "/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
     <s v="Nuevo "/>
-    <x v="0"/>
-    <s v="Ingresar a la pantalla siguiente para el proceso del llenado de la solicitid "/>
-    <s v="Ingresar a la pantalla siguiente para el proceso del llenado de la solicitid "/>
+    <x v="1"/>
+    <s v="Se puede ingresar l apartado de la solicitud de la baja, pero al guardar el registro se guarda mas de tres veces el mismo registro "/>
+    <s v="Crear la soliciud de la baja "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="9"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Detalle de Transferencia "/>
-    <x v="0"/>
-    <s v="Llenado detalles de transferencia "/>
-    <s v="Llenado detalles de transferencia son  5 campos importante seleccionar el tipo de transferencia y motivo del resguardo "/>
+    <s v="Datos del bien No. Activo "/>
+    <x v="0"/>
+    <s v="Extraer los datss del  numero de activo desde resguardos "/>
+    <s v="Extraer los datss del  numero de activo desde resguardos "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="10"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Clave del registro "/>
-    <x v="0"/>
-    <s v="Crear la clave del Registro "/>
-    <s v="Crear la clave del Registro "/>
+    <s v="Datos del bien Descripción de la  baja"/>
+    <x v="0"/>
+    <s v="Permite redactar el motivo de la baja"/>
+    <s v="Permite redactar el motivo de la baja"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="11"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Descarga formato FRDP-002 Resguardo de Mobiliario y Equipo "/>
-    <x v="0"/>
-    <s v="Creacion del Formato FRDP-002 y descarga del mismo "/>
-    <s v="Creacion del Formato FRDP-002 y descarga del mismo "/>
+    <s v="Motivo de la baja "/>
+    <x v="1"/>
+    <s v="Ajustar el titulo ya que dice Motivo de las baja omitir la s de las "/>
+    <s v="Seleccione la baja que corresponda "/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="12"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Descarga formato FRDP-004 Transferencia Interna  Mobiliario y Equipo "/>
-    <x v="0"/>
-    <s v="Creacion del Formato FRDP-004 y descarga del mismo "/>
-    <s v="Creacion del Formato FRDP-004 y descarga del mismo "/>
+    <s v="Motivo de la baja Robo"/>
+    <x v="2"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="13"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Detalle  "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia "/>
-    <s v="Enlase Detalle transferencia "/>
+    <s v="Motivo de la baja Siniestro "/>
+    <x v="2"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="14"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Carga FRDP-002 Resguado de Mobiliarioa y Esquipo"/>
-    <x v="1"/>
-    <s v="Definir el campo 3 Detalles de la Transferencia con  la carga de Formatos "/>
-    <s v="Carga FRDP-002 Resguado de Mobiliarioa y Esquipo"/>
+    <s v="Motivo de la baja Extravio"/>
+    <x v="2"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="15"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Carga FRDP-004 Resguado de Mobiliarioa y Esquipo"/>
-    <x v="1"/>
-    <s v="Definir el campo 3 Detalles de la Transferencia con  la carga de Formatos "/>
-    <s v="Carga FRDP-004 Resguado de Mobiliarioa y Esquipo"/>
+    <s v="Motivo de la baja Daño"/>
+    <x v="2"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="16"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
     <s v="Enlace Dependencia "/>
     <s v="luis.sierra "/>
-    <s v="Botón Cargar Oficios y Formatos "/>
-    <x v="0"/>
-    <s v="Carga de Documentos  listo para autorizar "/>
-    <s v="Carga de Documentos  listo para autorizar por parte del coordinador de la dependencia "/>
+    <s v="Detalles Adicionales Testigo"/>
+    <x v="2"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="17"/>
-    <s v="Transferencias "/>
-    <s v="listado de Transferencia  "/>
-    <s v="Coordinador de la Dependencia"/>
-    <s v="luis.andres "/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia se repite dos veces el campo 3 "/>
-    <s v="Enlase Detalle transferencia"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Enlace Dependencia "/>
+    <s v="luis.sierra "/>
+    <s v="Guardar  "/>
+    <x v="1"/>
+    <s v="Guarda registro mas de una ves "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="18"/>
-    <s v="Transferencias "/>
-    <s v="listado de Transferencia  "/>
-    <s v="Coordinador de la Dependencia"/>
-    <s v="luis.andres "/>
-    <s v="Confirmar "/>
-    <x v="0"/>
-    <s v="Confirmar la solicitud lista para confirmar y revisar  por parte de Coordinador de Bienes Muebles "/>
-    <s v="Confirmar la solicitud lista para confirmar y revisar  por parte de Coordinador de Bienes Muebles "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Enlace Dependencia "/>
+    <s v="luis.sierra "/>
+    <s v="Clave de Registro "/>
+    <x v="0"/>
+    <s v="Arroja clave de Registro "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="19"/>
-    <s v="Transferencias "/>
-    <s v="listado de Transferencia  "/>
-    <s v="Coordinador de la Dependencia"/>
-    <s v="luis.andres "/>
-    <s v="Devolver con comentarios "/>
-    <x v="2"/>
-    <m/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Enlace Dependencia "/>
+    <s v="luis.sierra "/>
+    <s v="Descarga del Formato Acta Adminis. FRDP-007"/>
+    <x v="0"/>
+    <s v="Descarga de Formato FRDP-007"/>
     <m/>
     <m/>
     <m/>
@@ -6910,294 +6924,294 @@
   </r>
   <r>
     <n v="20"/>
-    <s v="Transferencias "/>
-    <s v="listado de Transferencia  "/>
-    <s v="Coordinador de la Dependencia"/>
-    <s v="luis.andres "/>
-    <s v="Cancelar "/>
-    <x v="0"/>
-    <s v="Cancela la solicitud "/>
-    <s v="Cancela la solicitud "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Enlace Dependencia "/>
+    <s v="luis.sierra "/>
+    <s v="CARGA  del Formato Acta Adminis. FRDP-007"/>
+    <x v="0"/>
+    <s v="Carga de Formato FRDP-007- "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="21"/>
-    <s v="Transferencias "/>
-    <s v="listado de Transferencia  "/>
-    <s v="Coordinador de Bienes Mueble "/>
-    <s v="judith.jaramillo"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Dependencias "/>
+    <s v="luis.angres "/>
+    <s v="Botón Grardar Documentación Soporte "/>
+    <x v="0"/>
     <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia se repite dos veces el campo 3 "/>
-    <s v="Enlase Detalle transferencia"/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="22"/>
-    <s v="Transferencias "/>
-    <s v="listado de Transferencia  "/>
-    <s v="Coordinador de Bienes Mueble "/>
-    <s v="judith.jaramillo"/>
-    <s v="Botón Turnar a Jefatura de Inventarios "/>
-    <x v="0"/>
-    <s v="Confirma, revisa y valida el registro "/>
-    <s v="Confirma, revisa y valida el registro, listo para enviarlo a jefatura de inventarios "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Dependencias "/>
+    <s v="luis.angres "/>
+    <s v="Confirmar "/>
+    <x v="0"/>
+    <s v="Confirmacion de la Solicitud y Enviada a Coordinación de bienes Muebles  "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="23"/>
-    <s v="Transferencias "/>
-    <s v="listado de Transferencia  "/>
-    <s v="Coordinador de Bienes Mueble "/>
-    <s v="judith.jaramillo"/>
-    <s v="Cancelar "/>
-    <x v="0"/>
-    <s v="Cancela la solicitud "/>
-    <s v="Cancela la solicitud "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Dependencias "/>
+    <s v="luis.angres "/>
+    <s v="Devolver con comentarios "/>
+    <x v="3"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="24"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia se repite dos veces el campo 3 "/>
-    <s v="Enlase Detalle transferencia"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Autorizar "/>
+    <x v="2"/>
+    <s v="Autorizar la solicitud de baja "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="25"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Botón Turnar al  Analista Administrativo "/>
-    <x v="0"/>
-    <s v="Envía la solicitud para la finalización Interna &amp;Externa "/>
-    <s v="Envía la solicitud para la finalización Interna &amp;Externa donde finaliza y Notifica al Analista Administrativo "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Devolver con comentarios "/>
+    <x v="3"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="26"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia"/>
-    <s v="Enlase Detalle transferencia"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Botón turnar a Jefatura de inventarios "/>
+    <x v="0"/>
+    <s v="Envia la solicitud de baja autorizada a jefatura de jefatura de inventarios para contunuar con el proceso siguiente. "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="27"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Finalizar y Notificar "/>
-    <x v="0"/>
-    <s v="Finaliza y Notifica al Analista Adiminitrativo para Continuar con el proceso interno "/>
-    <s v="Finaliza y Notifica al Analista Adiminitrativo para Continuar con el proceso interno "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Devolver con comentarios "/>
+    <x v="3"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="28"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia"/>
-    <s v="Enlase Detalle transferencia"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Jefatura de inventarios "/>
+    <s v="serafin.sepulveda"/>
+    <s v="Detalles de Baja Documentos Descarga"/>
+    <x v="1"/>
+    <s v="Arroja un erro al descargar documento "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="29"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Botón Confirmar Registro "/>
-    <x v="0"/>
-    <s v="Confirma el regsitro listo para sellar y retornar a Jefatura de Inventarios "/>
-    <s v="Confirma el regsitro listo para sellar y retornar a Jefatura de Inventarios "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Jefatura de inventarios "/>
+    <s v="serafin.sepulveda"/>
+    <s v="Cargar Oficio de Contestación "/>
+    <x v="0"/>
+    <s v="Carga de Oficio de Contestación "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="30"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia"/>
-    <s v="Enlase Detalle transferencia"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Jefatura de inventarios "/>
+    <s v="serafin.sepulveda"/>
+    <s v="Guardar Documentción de Soporte "/>
+    <x v="0"/>
+    <s v="Gurdar dormato de contestación, listo para ser turnado a CBM para su autorización "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="31"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Carga de FRDP-002 Resguardo de Mobiliario y Equipo Firmado "/>
-    <x v="0"/>
-    <s v="Carga de Documento Firmado Revisar bien como es el flujo de descarga, firma y carga de documentos firmados "/>
-    <s v="Cargar de FRDP-002 Resguardo de Mobiliario y Equipo Firmado "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Jefatura de inventarios "/>
+    <s v="serafin.sepulveda"/>
+    <s v="Botón Turnar a CBM para su aautorización "/>
+    <x v="0"/>
+    <s v="Envia la solicitud de baja a coordinación de bienes muebles  para contunuar con el proceso siguiente. FRDP-019 Firmado"/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="32"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Carga de FRDP-004 Transferencia Interna de Mobiliario y Equipo Firmado "/>
-    <x v="1"/>
-    <s v="Carga de Documento Firmado Revisar bien como es el flujo de descarga, firma y carga de documentos firmados "/>
-    <s v="Cargar de FRDP-004 Transferencia Interna de Mobiliario y Equipo Firmado "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Detalles de Baja Documentos Descarga"/>
+    <x v="0"/>
+    <s v="Descarga de FRDP-019 "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="33"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Analista Administrativo "/>
-    <s v="melisa.rosas "/>
-    <s v="Botón Turnar a Jefatura de Inventarios "/>
-    <x v="1"/>
-    <s v="Envia documentos firmados a Jefarura  de inventarios para continuar con la elaboración de Respuesta "/>
-    <s v="Envia documentos firmados a Jefarura  de inventarios para continuar con la elaboración de Respuesta "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Carga de FRDP-019 Firmado "/>
+    <x v="0"/>
+    <s v="Carga de FRDP-019 "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="34"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia"/>
-    <s v="Enlase Detalle transferencia"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Botón Confirmar Documentaión de Soporte "/>
+    <x v="0"/>
+    <s v="Confirma Documentación "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="35"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Botón Archivar y Notificar "/>
-    <x v="0"/>
-    <s v="Archica la tranferencia y Notifica al Coordinador de Bienes Muebles "/>
-    <s v="Archica la tranferencia y Notifica al Coordinador de Bienes Muebles "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Coordinador de Bienes Muebles "/>
+    <s v="judith.jaramillo "/>
+    <s v="Botón Turnar al analista Administrativo "/>
+    <x v="0"/>
+    <s v="Confirma la soliicitud lista para turnar al analista administrativo "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="36"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Coordinador de Bienes Mueble "/>
-    <s v="judith.jaramillo"/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia"/>
-    <s v="Enlase Detalle transferencia"/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Analista Administrativo "/>
+    <s v="Melisa Rosas "/>
+    <s v="Botón  Confirmación de Procesado "/>
+    <x v="0"/>
+    <s v="Confirma la solicitud para sello y firma "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="37"/>
-    <s v="Transferencias "/>
-    <s v="Detalles de Transferencia "/>
-    <s v="Coordinador de Bienes Mueble "/>
-    <s v="judith.jaramillo"/>
-    <s v="Cargar Oficio de Contestación "/>
-    <x v="0"/>
-    <s v="Carga oficio de contestación "/>
-    <s v="Carga oficio de contestación "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Analista Administrativo "/>
+    <s v="Melisa Rosas "/>
+    <s v="Boton Turnar a Jefatura de Inventarios "/>
+    <x v="0"/>
+    <s v="Envia la solicitud a jefatura de inventarios "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <n v="38"/>
-    <s v="Transferencias "/>
-    <s v="Detalles de Transferencia "/>
-    <s v="Coordinador de Bienes Mueble "/>
-    <s v="judith.jaramillo"/>
-    <s v="Botón Autorizar y Firmar "/>
-    <x v="0"/>
-    <s v="Autorizar Oficio de Respuesta "/>
-    <s v="Autorizar Oficio de Respuesta y se envía a Jefatura de Inventarios para finalizar el poceso de transferencia "/>
+    <s v="Bajas"/>
+    <s v="Solicitud de Bajas"/>
+    <s v="Jefatura de inventarios "/>
+    <s v="serafin.sepulveda"/>
+    <s v="Botón Archiva "/>
+    <x v="2"/>
+    <s v="Archiva y Finaliza el Proceso de la Baja "/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
-    <n v="39"/>
-    <s v="Transferencias "/>
-    <s v="Listado de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Detalles "/>
-    <x v="0"/>
-    <s v="Enlase Detalle transferencia"/>
-    <s v="Enlase Detalle transferencia"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
-    <n v="40"/>
-    <s v="Transferencias "/>
-    <s v="Detalles de Transferencia "/>
-    <s v="Jefatura de Inventarios "/>
-    <s v="serafin.supulvera "/>
-    <s v="Finalizar y Notificar "/>
-    <x v="0"/>
-    <s v="Finaliza y Notifica Finalizaa Proceso de Transferencia y notifica a la dependencia "/>
-    <s v="Finaliza y Notifica Finalizaa Proceso de Transferencia y notifica a la dependencia "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7209,7 +7223,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -7223,7 +7237,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -7237,7 +7251,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -7251,7 +7265,35 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <m/>
     <m/>
     <m/>
@@ -7262,7 +7304,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -7326,7 +7368,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7338,9 +7380,9 @@
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
         <item m="1" x="4"/>
-        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
-        <item h="1" x="3"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -7375,7 +7417,7 @@
     <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
@@ -7384,7 +7426,7 @@
     </format>
   </formats>
   <chartFormats count="1">
-    <chartFormat chart="0" format="48" series="1">
+    <chartFormat chart="0" format="52" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7407,7 +7449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7753,13 +7795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7781,7 +7823,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -7815,7 +7857,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -7856,7 +7898,7 @@
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
@@ -7921,13 +7963,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -7955,13 +7997,13 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -7992,10 +8034,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -8026,10 +8068,10 @@
         <v>45</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -8038,7 +8080,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>54</v>
@@ -8060,10 +8102,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -8094,10 +8136,10 @@
         <v>51</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -8106,7 +8148,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>53</v>
@@ -8124,13 +8166,13 @@
         <v>51</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -8139,10 +8181,10 @@
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2"/>
       <c r="M13" s="21"/>
@@ -8150,85 +8192,85 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" s="20"/>
       <c r="M14" s="21"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J15" s="20"/>
       <c r="M15" s="21"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>81</v>
@@ -8237,666 +8279,636 @@
         <v>17</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J16" s="20"/>
       <c r="M16" s="21"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="20"/>
       <c r="M17" s="21"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="20"/>
       <c r="M18" s="21"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="20"/>
       <c r="M19" s="21"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="20"/>
       <c r="M20" s="21"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="20"/>
       <c r="M21" s="21"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="J22" s="20"/>
       <c r="M22" s="21"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J23" s="20"/>
       <c r="M23" s="21"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J24" s="20"/>
       <c r="M24" s="21"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="J25" s="20"/>
       <c r="M25" s="21"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J26" s="20"/>
       <c r="M26" s="21"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="J27" s="20"/>
       <c r="M27" s="21"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J28" s="20"/>
       <c r="M28" s="21"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="20"/>
       <c r="M29" s="21"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J30" s="20"/>
       <c r="M30" s="21"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="20"/>
       <c r="M31" s="21"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J32" s="20"/>
       <c r="M32" s="21"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="20"/>
       <c r="M33" s="21"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J34" s="20"/>
       <c r="M34" s="21"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J35" s="20"/>
       <c r="M35" s="21"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J36" s="20"/>
       <c r="M36" s="21"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>119</v>
@@ -8905,68 +8917,68 @@
         <v>17</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J37" s="20"/>
       <c r="M37" s="21"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J38" s="20"/>
       <c r="M38" s="21"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>123</v>
@@ -8978,56 +8990,56 @@
       <c r="M39" s="21"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="J40" s="20"/>
       <c r="M40" s="21"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -9042,167 +9054,128 @@
       <c r="M41" s="21"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="J42" s="20"/>
       <c r="M42" s="21"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J43" s="20"/>
       <c r="M43" s="21"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>38</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J44" s="20"/>
       <c r="M44" s="21"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>95</v>
-      </c>
+    <row r="45" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="23"/>
+      <c r="F45" s="3"/>
       <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="20"/>
       <c r="M45" s="21"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>132</v>
-      </c>
+    <row r="46" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="23"/>
+      <c r="F46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="20"/>
       <c r="M46" s="21"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="22"/>
       <c r="C47" s="19"/>
       <c r="D47" s="23"/>
@@ -9213,7 +9186,7 @@
       <c r="M47" s="21"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
       <c r="C48" s="19"/>
       <c r="D48" s="23"/>
@@ -9234,6 +9207,28 @@
       <c r="J49" s="20"/>
       <c r="M49" s="21"/>
       <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="23"/>
+      <c r="F50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="20"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="23"/>
+      <c r="F51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="20"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9259,23 +9254,23 @@
           </x14:formula1>
           <xm:sqref>L7</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L49</xm:sqref>
+          <xm:sqref>L8:L51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K49</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Datos!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G32 G34:G1048576</xm:sqref>
+          <xm:sqref>K7:K51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9318,7 +9313,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9326,12 +9321,12 @@
         <v>17</v>
       </c>
       <c r="B5" s="16">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="16">
         <v>4</v>
@@ -9342,7 +9337,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="17">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9427,7 +9422,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -9449,7 +9444,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>39</v>
@@ -9472,7 +9467,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
